--- a/transcripts.xlsx
+++ b/transcripts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,187 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>People</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Transcripts</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Global Colab</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1694847528000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NxssjMwImP3elRAP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://app.fireflies.ai/view/NxssjMwImP3elRAP</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Global Colab</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1694793600000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>hsf5aHkHf5zdXeBT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['niresh@verboseholdings.com', 'danwalls75@gmail.com', 'dillonkevin95@gmail.com', 'dillonb_ach@yahoo.com']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://app.fireflies.ai/view/hsf5aHkHf5zdXeBT</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>qru-qens-typ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1694763660000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2b4JVqCbbHQ7oZHx</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://app.fireflies.ai/view/2b4JVqCbbHQ7oZHx</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fireflies Sample Data :: 2023-09-15T01:06:20.050Z</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1694739980050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>randomnoteds4xtfbp</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['sample@fireflies.ai', 'team@fireflies.ai', 'client@fireflies.ai']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://app.fireflies.ai/view/randomnoteds4xtfbp</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Testing FireFlies : Fred &amp; Dillon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1694732400000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>agyVpZHNnKo0m6I7</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://app.fireflies.ai/view/agyVpZHNnKo0m6I7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>65</t>
         </is>
       </c>
     </row>
